--- a/Data/aearep-1574/candidatepackages.xlsx
+++ b/Data/aearep-1574/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -22,12 +22,6 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
     <t>diff</t>
   </si>
   <si>
@@ -37,21 +31,12 @@
     <t>listtab</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>norm</t>
   </si>
   <si>
     <t>equation</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>forest</t>
   </si>
   <si>
@@ -67,15 +52,6 @@
     <t>adjust</t>
   </si>
   <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>head</t>
   </si>
   <si>
@@ -91,9 +67,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1574</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-1574/126141/codes</t>
   </si>
   <si>
@@ -104,9 +77,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
   </si>
   <si>
     <t>master.do</t>
@@ -174,7 +144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -182,13 +152,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -208,7 +178,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -220,7 +190,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -232,7 +202,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>224</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -244,10 +214,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>539</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D6"/>
     </row>
@@ -256,10 +226,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>220</v>
+        <v>893</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.29520660638809204</v>
       </c>
       <c r="D7"/>
     </row>
@@ -268,10 +238,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>1226</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.40528926253318787</v>
       </c>
       <c r="D8"/>
     </row>
@@ -280,10 +250,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>279</v>
+        <v>1414</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D9"/>
     </row>
@@ -292,10 +262,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>594</v>
+        <v>1428</v>
       </c>
       <c r="C10">
-        <v>0.19694960117340088</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D10"/>
     </row>
@@ -304,10 +274,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>936</v>
+        <v>1497</v>
       </c>
       <c r="C11">
-        <v>0.31034481525421143</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D11"/>
     </row>
@@ -316,10 +286,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1124</v>
+        <v>1796</v>
       </c>
       <c r="C12">
-        <v>0.37267905473709106</v>
+        <v>0.5937190055847168</v>
       </c>
       <c r="D12"/>
     </row>
@@ -328,108 +298,12 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1375</v>
+        <v>1971</v>
       </c>
       <c r="C13">
-        <v>0.4559018611907959</v>
+        <v>0.65157026052474976</v>
       </c>
       <c r="D13"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1423</v>
-      </c>
-      <c r="C14">
-        <v>0.47181698679924011</v>
-      </c>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1553</v>
-      </c>
-      <c r="C15">
-        <v>0.51492041349411011</v>
-      </c>
-      <c r="D15"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1660</v>
-      </c>
-      <c r="C16">
-        <v>0.55039787292480469</v>
-      </c>
-      <c r="D16"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1793</v>
-      </c>
-      <c r="C17">
-        <v>0.59449601173400879</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>1798</v>
-      </c>
-      <c r="C18">
-        <v>0.5961538553237915</v>
-      </c>
-      <c r="D18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1817</v>
-      </c>
-      <c r="C19">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D19"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1859</v>
-      </c>
-      <c r="C20">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D20"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2133</v>
-      </c>
-      <c r="C21">
-        <v>0.70722812414169312</v>
-      </c>
-      <c r="D21"/>
     </row>
   </sheetData>
 </worksheet>
@@ -437,87 +311,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
